--- a/Source/KadOzenka.Dal.IntegrationTests/Task/_Files/two_parcels_error.xlsx
+++ b/Source/KadOzenka.Dal.IntegrationTests/Task/_Files/two_parcels_error.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korotkova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KadOzenka\Source\KadOzenka.Dal.IntegrationTests\Task\_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Кад №</t>
   </si>
@@ -60,19 +60,35 @@
   </si>
   <si>
     <t>ERROR_HERE</t>
+  </si>
+  <si>
+    <t>50:01:0010222</t>
+  </si>
+  <si>
+    <t>Текст 2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,35 +144,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +482,7 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,8 +585,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
-        <v>44326</v>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -577,8 +594,8 @@
       <c r="E2" s="11">
         <v>1.2</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
+      <c r="F2" s="8">
+        <v>44326</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>10</v>
@@ -628,13 +645,70 @@
       <c r="AV2" s="5"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44357</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
